--- a/biology/Botanique/Phoenicophorium_borsigianum/Phoenicophorium_borsigianum.xlsx
+++ b/biology/Botanique/Phoenicophorium_borsigianum/Phoenicophorium_borsigianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoenicophorium borsigianum est une espèce de palmiers originaire des Seychelles. C'est l'unique représentant du genre Phoenicophorium (genre monotypique).
 </t>
@@ -511,15 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-famille des Arecoideae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Verschaffeltiinae[2]
-Étymologie
-Phoenicophorium : nom générique qui vient de phoenix = nom commun pour "palmier", et de phorios = "volé", faisant référence au fait que la plante originale des jardins botaniques royaux de Kew qui aurait dû être présentée à Wendland pour pouvoir fournir sa description , a été volée par un autre jardinier allemand [3].
-borsigianum : cet épithète spécifique honore August Borsig (1804-1854) , un industriel berlinois possesseur d'une importante collection de plantes exotiques[3].
-</t>
+Sous-tribu des Verschaffeltiinae</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phoenicophorium : nom générique qui vient de phoenix = nom commun pour "palmier", et de phorios = "volé", faisant référence au fait que la plante originale des jardins botaniques royaux de Kew qui aurait dû être présentée à Wendland pour pouvoir fournir sa description , a été volée par un autre jardinier allemand .
+borsigianum : cet épithète spécifique honore August Borsig (1804-1854) , un industriel berlinois possesseur d'une importante collection de plantes exotiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phoenicophorium_borsigianum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phoenicophorium_borsigianum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Areca sechellarum (H.Wendl.) Baill.
 Astrocaryum borsigianum K.Koch
@@ -557,35 +607,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Phoenicophorium_borsigianum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Phoenicophorium_borsigianum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (18 août 2014)[4], GRIN            (18 août 2014)[5], World Checklist of Selected Plant Families (WCSP)  (18 août 2014)[6], NCBI  (18 août 2014)[7] et The Plant List            (18 août 2014)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (18 août 2014), GRIN            (18 août 2014), World Checklist of Selected Plant Families (WCSP)  (18 août 2014), NCBI  (18 août 2014) et The Plant List            (18 août 2014) :
 Phoenicophorium borsigianum (K.Koch) Stuntz (1914)
-Selon Tropicos                                           (18 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Phoenicophorium borsigianum (K. Koch) Stuntz
 Phoenicophorium sechellarum H. Wendl. (Synonymes de P. borsigianum )
 Phoenicophorium viridifolium H. Wendl. (Synonymes de Roscheria melanochaetes )</t>
